--- a/Results/Simulated_fluxes/PPP_fluxes_glc_min.xlsx
+++ b/Results/Simulated_fluxes/PPP_fluxes_glc_min.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,57 +442,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>oxpp</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TKT1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TKT2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>TALA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TKT1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TKT2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RPI</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>G6PDH2rp</t>
+          <t>XPK</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>PYRDC</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PGLp</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>XPK</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PYRDC</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>PDHm</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>oxpp</t>
         </is>
       </c>
     </row>
@@ -504,34 +484,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.170385802236018</v>
+        <v>4.924629791700402</v>
       </c>
       <c r="D2" t="n">
-        <v>14.24733900446627</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.077127302230258</v>
+        <v>0.2555711750131232</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.19485347507391</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.769281825557564</v>
       </c>
     </row>
     <row r="3">
@@ -542,34 +510,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.73077160443115</v>
+        <v>9.239259583322308</v>
       </c>
       <c r="D3" t="n">
-        <v>27.27467800885808</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.54425460442693</v>
+        <v>0.5111423499953225</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>19.16970694997566</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.386063651106732</v>
       </c>
     </row>
     <row r="4">
@@ -580,34 +536,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-20.29115740655806</v>
+        <v>13.55388937497974</v>
       </c>
       <c r="D4" t="n">
-        <v>40.30201701312804</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.01138190656998</v>
+        <v>0.7667135249928936</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.144560424956</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.002845476642496</v>
       </c>
     </row>
     <row r="5">
@@ -618,34 +562,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-26.85154320879307</v>
+        <v>17.86851916664099</v>
       </c>
       <c r="D5" t="n">
-        <v>53.32935601759225</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.47850920879918</v>
+        <v>1.022284699990525</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>37.11941389994399</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.619627302199795</v>
       </c>
     </row>
     <row r="6">
@@ -656,34 +588,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-33.41192901106428</v>
+        <v>22.18314895821594</v>
       </c>
       <c r="D6" t="n">
-        <v>66.35669502212173</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.94563651105744</v>
+        <v>1.277855874957167</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>46.09426737474422</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8.236409127764359</v>
       </c>
     </row>
     <row r="7">
@@ -694,34 +614,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-39.97231481329897</v>
+        <v>26.49777874996163</v>
       </c>
       <c r="D7" t="n">
-        <v>79.38403402658541</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>39.41276381328644</v>
+        <v>1.533427049985787</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>55.06912084991629</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.85319095332161</v>
       </c>
     </row>
   </sheetData>
